--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.32.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.32.xlsx
@@ -67,12 +67,12 @@
     <t>trans</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>כן.</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>הוא הגיע אתך.</t>
   </si>
   <si>
@@ -109,46 +109,46 @@
     <t>?med</t>
   </si>
   <si>
+    <t>אם זה לא לאחרונה?</t>
+  </si>
+  <si>
+    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
+  </si>
+  <si>
+    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
+  </si>
+  <si>
+    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
+  </si>
+  <si>
+    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
+  </si>
+  <si>
+    <t>ליואב?</t>
+  </si>
+  <si>
+    <t>ליואב סכרת?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
+  </si>
+  <si>
+    <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
+  </si>
+  <si>
     <t>r/o</t>
-  </si>
-  <si>
-    <t>אם זה לא לאחרונה?</t>
-  </si>
-  <si>
-    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
-  </si>
-  <si>
-    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
-  </si>
-  <si>
-    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
-  </si>
-  <si>
-    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
-  </si>
-  <si>
-    <t>ליואב?</t>
-  </si>
-  <si>
-    <t>ליואב סכרת?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
-  </si>
-  <si>
-    <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
   </si>
   <si>
     <t xml:space="preserve">(לא נשמע) זאת אומרת זה משהו שהוא בוודאות במאה אחוז הוא נקבע זהו. </t>
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -835,7 +835,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -843,10 +843,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -877,7 +877,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -975,7 +975,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
         <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1182,7 +1182,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1196,7 +1196,7 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1210,10 +1210,10 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1238,7 +1238,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1269,7 +1269,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1378,7 +1378,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1434,7 +1434,7 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1451,7 +1451,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1479,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1518,7 +1518,7 @@
         <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1605,7 +1605,7 @@
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1616,7 +1616,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1644,7 +1644,7 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1658,10 +1658,10 @@
         <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1672,10 +1672,10 @@
         <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1686,7 +1686,7 @@
         <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
         <v>20</v>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1798,7 +1798,7 @@
         <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -1896,10 +1896,10 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1941,7 +1941,7 @@
         <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -1952,10 +1952,10 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1983,7 +1983,7 @@
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -2008,7 +2008,7 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2036,7 +2036,7 @@
         <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2050,10 +2050,10 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2078,7 +2078,7 @@
         <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2120,7 +2120,7 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
@@ -2134,7 +2134,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -2162,10 +2162,10 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2176,7 +2176,7 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -2207,7 +2207,7 @@
         <v>122</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2221,7 +2221,7 @@
         <v>94</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -2235,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -2263,7 +2263,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
